--- a/data/pca/factorExposure/factorExposure_2014-08-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-08-07.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.003168567166655697</v>
+        <v>0.01883757366887976</v>
       </c>
       <c r="C2">
-        <v>-0.1220581544639797</v>
+        <v>0.06718746737427</v>
       </c>
       <c r="D2">
-        <v>-0.01714644503713993</v>
+        <v>-0.03039510160761385</v>
       </c>
       <c r="E2">
-        <v>-0.2224208811071761</v>
+        <v>0.001093785076269232</v>
       </c>
       <c r="F2">
-        <v>0.04539886676330381</v>
+        <v>0.03847479790020947</v>
       </c>
       <c r="G2">
-        <v>-0.07799381203656748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1621249433806748</v>
+      </c>
+      <c r="H2">
+        <v>0.03855690693448119</v>
+      </c>
+      <c r="I2">
+        <v>-0.002719739115132913</v>
+      </c>
+      <c r="J2">
+        <v>0.1226129612114327</v>
+      </c>
+      <c r="K2">
+        <v>-0.05026839586736202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01635783800823993</v>
+        <v>0.01871483518130121</v>
       </c>
       <c r="C4">
-        <v>-0.1718300120125494</v>
+        <v>0.1427632398601475</v>
       </c>
       <c r="D4">
-        <v>-0.03431465458841021</v>
+        <v>-0.06552321830290071</v>
       </c>
       <c r="E4">
-        <v>-0.05147337279318451</v>
+        <v>0.0006511518127695627</v>
       </c>
       <c r="F4">
-        <v>-0.06077538516255453</v>
+        <v>0.061483852884967</v>
       </c>
       <c r="G4">
-        <v>0.01328704676748946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03450533031481456</v>
+      </c>
+      <c r="H4">
+        <v>-0.01279849683358999</v>
+      </c>
+      <c r="I4">
+        <v>-0.06907471614103088</v>
+      </c>
+      <c r="J4">
+        <v>0.08451892819369521</v>
+      </c>
+      <c r="K4">
+        <v>0.009504490941421107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.02590959147220532</v>
+        <v>0.03994188342974712</v>
       </c>
       <c r="C6">
-        <v>-0.07661437955765134</v>
+        <v>0.08602387763595908</v>
       </c>
       <c r="D6">
-        <v>-0.05235111965239415</v>
+        <v>-0.02834287693456347</v>
       </c>
       <c r="E6">
-        <v>-0.05562416639372521</v>
+        <v>0.0244037896558819</v>
       </c>
       <c r="F6">
-        <v>0.0007541512700946223</v>
+        <v>-0.03027130375093181</v>
       </c>
       <c r="G6">
-        <v>0.05596814429135141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.04243600531535521</v>
+      </c>
+      <c r="H6">
+        <v>-0.05615409379374314</v>
+      </c>
+      <c r="I6">
+        <v>-0.05133577788561199</v>
+      </c>
+      <c r="J6">
+        <v>-0.02138863156688873</v>
+      </c>
+      <c r="K6">
+        <v>-0.03504095301620948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.007339032501029234</v>
+        <v>0.01879012396601391</v>
       </c>
       <c r="C7">
-        <v>-0.07638227201842827</v>
+        <v>0.06991469652502398</v>
       </c>
       <c r="D7">
-        <v>-0.0374138603076106</v>
+        <v>-0.03279966839237604</v>
       </c>
       <c r="E7">
-        <v>-0.01214166597514478</v>
+        <v>0.004223606775884983</v>
       </c>
       <c r="F7">
-        <v>-0.02539013045270322</v>
+        <v>0.01411309506361881</v>
       </c>
       <c r="G7">
-        <v>0.04342756064834042</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.008517217921650187</v>
+      </c>
+      <c r="H7">
+        <v>-0.02237786880690251</v>
+      </c>
+      <c r="I7">
+        <v>-0.06427722116972656</v>
+      </c>
+      <c r="J7">
+        <v>0.0891166512263754</v>
+      </c>
+      <c r="K7">
+        <v>-0.02896734071955968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01241915265209275</v>
+        <v>0.001015006494854595</v>
       </c>
       <c r="C8">
-        <v>-0.07186106835575122</v>
+        <v>0.0613162717340671</v>
       </c>
       <c r="D8">
-        <v>-0.03299277370764686</v>
+        <v>-0.04813591087233894</v>
       </c>
       <c r="E8">
-        <v>-0.07038250954545773</v>
+        <v>0.04332602451879475</v>
       </c>
       <c r="F8">
-        <v>-0.01747356297914991</v>
+        <v>0.02040244813927097</v>
       </c>
       <c r="G8">
-        <v>-0.0154456647812388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.05756085789772517</v>
+      </c>
+      <c r="H8">
+        <v>0.01173853906951472</v>
+      </c>
+      <c r="I8">
+        <v>-0.0568267039037948</v>
+      </c>
+      <c r="J8">
+        <v>0.005948856503152715</v>
+      </c>
+      <c r="K8">
+        <v>0.005218353090199259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.009942001311208253</v>
+        <v>0.01318617218521274</v>
       </c>
       <c r="C9">
-        <v>-0.1224016915998899</v>
+        <v>0.1003558934747566</v>
       </c>
       <c r="D9">
-        <v>-0.04804019885663519</v>
+        <v>-0.04051290957868164</v>
       </c>
       <c r="E9">
-        <v>-0.01125293338928026</v>
+        <v>-0.01642553295051173</v>
       </c>
       <c r="F9">
-        <v>-0.004405790943757813</v>
+        <v>0.03082405351129702</v>
       </c>
       <c r="G9">
-        <v>0.02038704251849711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02410512846201467</v>
+      </c>
+      <c r="H9">
+        <v>0.005134467603923976</v>
+      </c>
+      <c r="I9">
+        <v>-0.06934150378455232</v>
+      </c>
+      <c r="J9">
+        <v>0.08956656846831472</v>
+      </c>
+      <c r="K9">
+        <v>-0.01677841480069831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2605400358773173</v>
+        <v>0.2458126855221506</v>
       </c>
       <c r="C10">
-        <v>0.07590030271593763</v>
+        <v>-0.09519920867734454</v>
       </c>
       <c r="D10">
-        <v>0.02678992025804209</v>
+        <v>0.006259138001191185</v>
       </c>
       <c r="E10">
-        <v>0.03138729798295593</v>
+        <v>0.05990065441790316</v>
       </c>
       <c r="F10">
-        <v>-0.02388110245686099</v>
+        <v>-0.01897034866661434</v>
       </c>
       <c r="G10">
-        <v>-0.009843427609031044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01020152290541111</v>
+      </c>
+      <c r="H10">
+        <v>-0.02787613545220304</v>
+      </c>
+      <c r="I10">
+        <v>-0.04008795424206126</v>
+      </c>
+      <c r="J10">
+        <v>0.01463067651773985</v>
+      </c>
+      <c r="K10">
+        <v>0.1343060412504142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.006099844998084665</v>
+        <v>0.01692854468620952</v>
       </c>
       <c r="C11">
-        <v>-0.06981702008195256</v>
+        <v>0.07940143558131318</v>
       </c>
       <c r="D11">
-        <v>-0.02900237100328101</v>
+        <v>-0.03829724375749146</v>
       </c>
       <c r="E11">
-        <v>0.02272425713631387</v>
+        <v>-0.01229047459880225</v>
       </c>
       <c r="F11">
-        <v>-0.009729560205048983</v>
+        <v>0.004403474111929978</v>
       </c>
       <c r="G11">
-        <v>0.02914386205973386</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.01155076160266858</v>
+      </c>
+      <c r="H11">
+        <v>-0.003380151203662878</v>
+      </c>
+      <c r="I11">
+        <v>-0.02414797902549031</v>
+      </c>
+      <c r="J11">
+        <v>0.02325644528641708</v>
+      </c>
+      <c r="K11">
+        <v>-0.02522648617196334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.003349075742454645</v>
+        <v>0.01685794578864512</v>
       </c>
       <c r="C12">
-        <v>-0.04853441159093762</v>
+        <v>0.0534369053142613</v>
       </c>
       <c r="D12">
-        <v>-0.03749631499704117</v>
+        <v>-0.02658211284582516</v>
       </c>
       <c r="E12">
-        <v>0.01523859806127194</v>
+        <v>-0.01150362453573596</v>
       </c>
       <c r="F12">
-        <v>0.01610851154075885</v>
+        <v>-0.01503188715529461</v>
       </c>
       <c r="G12">
-        <v>0.03866802640015272</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002236314388804611</v>
+      </c>
+      <c r="H12">
+        <v>-0.0192801801050923</v>
+      </c>
+      <c r="I12">
+        <v>-0.02863993248534362</v>
+      </c>
+      <c r="J12">
+        <v>0.0160771196439675</v>
+      </c>
+      <c r="K12">
+        <v>-0.010387190597096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01139735861476585</v>
+        <v>0.006175295528531896</v>
       </c>
       <c r="C13">
-        <v>-0.1263282754741682</v>
+        <v>0.1102419553315664</v>
       </c>
       <c r="D13">
-        <v>-0.07967066976356645</v>
+        <v>-0.04351990454545236</v>
       </c>
       <c r="E13">
-        <v>-0.05091503120593116</v>
+        <v>9.658717641443626e-05</v>
       </c>
       <c r="F13">
-        <v>0.06421719472162835</v>
+        <v>-0.02848515763481928</v>
       </c>
       <c r="G13">
-        <v>0.1119931356640538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1607067262568466</v>
+      </c>
+      <c r="H13">
+        <v>-0.1003025671891089</v>
+      </c>
+      <c r="I13">
+        <v>-0.02235001616031822</v>
+      </c>
+      <c r="J13">
+        <v>0.2126223809170224</v>
+      </c>
+      <c r="K13">
+        <v>0.1360252633782626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.008534833386960292</v>
+        <v>0.02065618171585257</v>
       </c>
       <c r="C14">
-        <v>-0.08041112075363242</v>
+        <v>0.07348792654270549</v>
       </c>
       <c r="D14">
-        <v>-0.04461033506787765</v>
+        <v>-0.0481074250799872</v>
       </c>
       <c r="E14">
-        <v>-0.02542580262443659</v>
+        <v>0.003866931921954863</v>
       </c>
       <c r="F14">
-        <v>0.03458290429909975</v>
+        <v>-0.03425341251157993</v>
       </c>
       <c r="G14">
-        <v>0.05750128090605561</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02464210687686341</v>
+      </c>
+      <c r="H14">
+        <v>-0.08064067123190737</v>
+      </c>
+      <c r="I14">
+        <v>-0.1498974383326899</v>
+      </c>
+      <c r="J14">
+        <v>0.1292525619557598</v>
+      </c>
+      <c r="K14">
+        <v>-0.03412765528736554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.003722694249427309</v>
+        <v>0.004264066328804859</v>
       </c>
       <c r="C15">
-        <v>-0.07250895792049671</v>
+        <v>0.06899367323804627</v>
       </c>
       <c r="D15">
-        <v>-0.02565525297971626</v>
+        <v>-0.03028637624061321</v>
       </c>
       <c r="E15">
-        <v>-0.04378719925658062</v>
+        <v>0.01126514438929349</v>
       </c>
       <c r="F15">
-        <v>-0.02604846898533202</v>
+        <v>0.02761075193125258</v>
       </c>
       <c r="G15">
-        <v>0.02672646200548564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.01935494608231417</v>
+      </c>
+      <c r="H15">
+        <v>-0.02173201389342104</v>
+      </c>
+      <c r="I15">
+        <v>-0.06720560168156262</v>
+      </c>
+      <c r="J15">
+        <v>0.04612372897252523</v>
+      </c>
+      <c r="K15">
+        <v>-0.03391650114954102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.008703072150681706</v>
+        <v>0.01614995455645348</v>
       </c>
       <c r="C16">
-        <v>-0.05718705446329915</v>
+        <v>0.0610005222272413</v>
       </c>
       <c r="D16">
-        <v>-0.02652923137100754</v>
+        <v>-0.02690214409797317</v>
       </c>
       <c r="E16">
-        <v>0.01680745125259311</v>
+        <v>-0.01166585187860966</v>
       </c>
       <c r="F16">
-        <v>0.003568505988328521</v>
+        <v>0.001424651267016985</v>
       </c>
       <c r="G16">
-        <v>0.01598571904479717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.00633572394774259</v>
+      </c>
+      <c r="H16">
+        <v>-0.002838218041887946</v>
+      </c>
+      <c r="I16">
+        <v>-0.01730245602371919</v>
+      </c>
+      <c r="J16">
+        <v>0.01614263530858176</v>
+      </c>
+      <c r="K16">
+        <v>-0.01947182631806228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.009765186928685457</v>
+        <v>0.01485886812038156</v>
       </c>
       <c r="C20">
-        <v>-0.09475213618103619</v>
+        <v>0.08476465190087949</v>
       </c>
       <c r="D20">
-        <v>-0.03993910784861029</v>
+        <v>-0.02613928383262839</v>
       </c>
       <c r="E20">
-        <v>0.03423338141954586</v>
+        <v>0.01126668185462135</v>
       </c>
       <c r="F20">
-        <v>0.003327945683849501</v>
+        <v>0.01368018061175305</v>
       </c>
       <c r="G20">
-        <v>0.07565013418842927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01974067528669288</v>
+      </c>
+      <c r="H20">
+        <v>-0.03144068360260915</v>
+      </c>
+      <c r="I20">
+        <v>-0.06409837717741616</v>
+      </c>
+      <c r="J20">
+        <v>0.04287775862691656</v>
+      </c>
+      <c r="K20">
+        <v>-0.01658271378384302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.001067344312314275</v>
+        <v>0.01473092408196149</v>
       </c>
       <c r="C21">
-        <v>-0.08452423554966158</v>
+        <v>0.0690238823860784</v>
       </c>
       <c r="D21">
-        <v>0.01712102828661064</v>
+        <v>-0.01945562090490367</v>
       </c>
       <c r="E21">
-        <v>-0.04124085188755278</v>
+        <v>0.01441281683114389</v>
       </c>
       <c r="F21">
-        <v>0.08317394839737395</v>
+        <v>-0.06937735818975405</v>
       </c>
       <c r="G21">
-        <v>0.005598204979985936</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.06805445192038778</v>
+      </c>
+      <c r="H21">
+        <v>-0.01277038187881616</v>
+      </c>
+      <c r="I21">
+        <v>-0.09102464844598726</v>
+      </c>
+      <c r="J21">
+        <v>0.1070717470296748</v>
+      </c>
+      <c r="K21">
+        <v>0.003196380589251988</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.009240726770983745</v>
+        <v>0.007693485644724735</v>
       </c>
       <c r="C22">
-        <v>-0.2307798389109148</v>
+        <v>0.1688046058594886</v>
       </c>
       <c r="D22">
-        <v>0.09777251703952503</v>
+        <v>-0.01918054329469914</v>
       </c>
       <c r="E22">
-        <v>-0.3310004624714325</v>
+        <v>0.09433218400068341</v>
       </c>
       <c r="F22">
-        <v>-0.3013891726809176</v>
+        <v>0.3449762564930213</v>
       </c>
       <c r="G22">
-        <v>0.001492667161084959</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.3841121148557827</v>
+      </c>
+      <c r="H22">
+        <v>-0.008593907620779438</v>
+      </c>
+      <c r="I22">
+        <v>0.2751842908346801</v>
+      </c>
+      <c r="J22">
+        <v>-0.1913455408467361</v>
+      </c>
+      <c r="K22">
+        <v>-0.01782762961789216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.01027018876139909</v>
+        <v>0.01283836155368195</v>
       </c>
       <c r="C23">
-        <v>-0.234280588680455</v>
+        <v>0.1721408358641459</v>
       </c>
       <c r="D23">
-        <v>0.1025999533256237</v>
+        <v>-0.01871752249743767</v>
       </c>
       <c r="E23">
-        <v>-0.3253137975899646</v>
+        <v>0.08808817827302019</v>
       </c>
       <c r="F23">
-        <v>-0.2969355322312925</v>
+        <v>0.3355857124064331</v>
       </c>
       <c r="G23">
-        <v>5.48622756316919e-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.3747303551629137</v>
+      </c>
+      <c r="H23">
+        <v>-0.008219743011207623</v>
+      </c>
+      <c r="I23">
+        <v>0.2573809079339127</v>
+      </c>
+      <c r="J23">
+        <v>-0.1763897941406413</v>
+      </c>
+      <c r="K23">
+        <v>-0.02268297388391327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.005892983884860909</v>
+        <v>0.01684468877693909</v>
       </c>
       <c r="C24">
-        <v>-0.06187121181934055</v>
+        <v>0.06410176288240954</v>
       </c>
       <c r="D24">
-        <v>-0.04281337705949412</v>
+        <v>-0.04034218469665368</v>
       </c>
       <c r="E24">
-        <v>0.01456691234685921</v>
+        <v>-0.01225006160139388</v>
       </c>
       <c r="F24">
-        <v>-0.005137275725465133</v>
+        <v>0.00567917757555997</v>
       </c>
       <c r="G24">
-        <v>0.04066042454760693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.005725858808597745</v>
+      </c>
+      <c r="H24">
+        <v>-0.01456012818762481</v>
+      </c>
+      <c r="I24">
+        <v>-0.02960806548867679</v>
+      </c>
+      <c r="J24">
+        <v>0.03199638110311132</v>
+      </c>
+      <c r="K24">
+        <v>-0.02291539910324451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.006100388261016381</v>
+        <v>0.02082799679866446</v>
       </c>
       <c r="C25">
-        <v>-0.06813510349495173</v>
+        <v>0.06806539167255887</v>
       </c>
       <c r="D25">
-        <v>-0.02054972425691025</v>
+        <v>-0.03286506001468297</v>
       </c>
       <c r="E25">
-        <v>0.02066727863796011</v>
+        <v>-0.01532891591466978</v>
       </c>
       <c r="F25">
-        <v>0.0009618209147906205</v>
+        <v>0.008272671615593625</v>
       </c>
       <c r="G25">
-        <v>0.03996743427890441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.003963091923256278</v>
+      </c>
+      <c r="H25">
+        <v>-0.006217921124939073</v>
+      </c>
+      <c r="I25">
+        <v>-0.02853678369412051</v>
+      </c>
+      <c r="J25">
+        <v>0.02945758749052048</v>
+      </c>
+      <c r="K25">
+        <v>-0.01160024184648568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01525377539785535</v>
+        <v>0.02186852028966382</v>
       </c>
       <c r="C26">
-        <v>-0.04663854117286983</v>
+        <v>0.05487982346346573</v>
       </c>
       <c r="D26">
-        <v>-0.07912199057425191</v>
+        <v>-0.06161188829300261</v>
       </c>
       <c r="E26">
-        <v>0.0081597822292861</v>
+        <v>-0.008847361281731253</v>
       </c>
       <c r="F26">
-        <v>0.0494528304170343</v>
+        <v>0.006659741814001407</v>
       </c>
       <c r="G26">
-        <v>0.04757765743525613</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.01103516362984047</v>
+      </c>
+      <c r="H26">
+        <v>0.01543920569295096</v>
+      </c>
+      <c r="I26">
+        <v>-0.06416870834249036</v>
+      </c>
+      <c r="J26">
+        <v>0.1065143280590209</v>
+      </c>
+      <c r="K26">
+        <v>-0.06228576286252788</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3579698842582055</v>
+        <v>0.3090432652806869</v>
       </c>
       <c r="C28">
-        <v>0.08324141712737634</v>
+        <v>-0.1128259178542599</v>
       </c>
       <c r="D28">
-        <v>0.02274933035262735</v>
+        <v>0.03397348928749261</v>
       </c>
       <c r="E28">
-        <v>0.04565741695775914</v>
+        <v>0.02064704507635411</v>
       </c>
       <c r="F28">
-        <v>0.03091409518916501</v>
+        <v>0.008659329624663009</v>
       </c>
       <c r="G28">
-        <v>-0.08342363998876171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.04412505732460451</v>
+      </c>
+      <c r="H28">
+        <v>0.1175923071946432</v>
+      </c>
+      <c r="I28">
+        <v>-0.03376007422522747</v>
+      </c>
+      <c r="J28">
+        <v>0.04544491161786997</v>
+      </c>
+      <c r="K28">
+        <v>0.213065687717533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.006655763522258315</v>
+        <v>0.01746086545023355</v>
       </c>
       <c r="C29">
-        <v>-0.08775064670910741</v>
+        <v>0.0829712336876935</v>
       </c>
       <c r="D29">
-        <v>-0.04904154052552983</v>
+        <v>-0.04998387117940138</v>
       </c>
       <c r="E29">
-        <v>-0.005294275916114333</v>
+        <v>-0.02330279480493013</v>
       </c>
       <c r="F29">
-        <v>0.03656468510843367</v>
+        <v>-0.02836576987468758</v>
       </c>
       <c r="G29">
-        <v>0.088371992817599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.02802384416012831</v>
+      </c>
+      <c r="H29">
+        <v>-0.1304052740350269</v>
+      </c>
+      <c r="I29">
+        <v>-0.2109845610061063</v>
+      </c>
+      <c r="J29">
+        <v>0.1801911374993023</v>
+      </c>
+      <c r="K29">
+        <v>-0.02725858302197189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02164239641932566</v>
+        <v>0.03390162988895328</v>
       </c>
       <c r="C30">
-        <v>-0.1649352398684332</v>
+        <v>0.1418606661446506</v>
       </c>
       <c r="D30">
-        <v>-0.06435234867144066</v>
+        <v>-0.05544239817842697</v>
       </c>
       <c r="E30">
-        <v>-0.04262197607513749</v>
+        <v>0.0203859404070323</v>
       </c>
       <c r="F30">
-        <v>-0.04788132219709032</v>
+        <v>0.04040236260220022</v>
       </c>
       <c r="G30">
-        <v>0.04450917285005385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.0349334521947096</v>
+      </c>
+      <c r="H30">
+        <v>-0.01961265161757029</v>
+      </c>
+      <c r="I30">
+        <v>-0.04641188117902104</v>
+      </c>
+      <c r="J30">
+        <v>0.01410214984441312</v>
+      </c>
+      <c r="K30">
+        <v>-0.04549554926086424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003858056556270499</v>
+        <v>0.01442206509314281</v>
       </c>
       <c r="C31">
-        <v>-0.05226794025593165</v>
+        <v>0.07701064594598249</v>
       </c>
       <c r="D31">
-        <v>-0.03386289349933378</v>
+        <v>-0.04132511658614432</v>
       </c>
       <c r="E31">
-        <v>0.01787742576311597</v>
+        <v>0.002583207778862197</v>
       </c>
       <c r="F31">
-        <v>0.008975750674348729</v>
+        <v>0.004202931683086226</v>
       </c>
       <c r="G31">
-        <v>0.002838586634732044</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.002844922222466636</v>
+      </c>
+      <c r="H31">
+        <v>0.02769488678114195</v>
+      </c>
+      <c r="I31">
+        <v>-0.03070251522854268</v>
+      </c>
+      <c r="J31">
+        <v>0.02276718399812715</v>
+      </c>
+      <c r="K31">
+        <v>-0.009498141224083552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01870666661544335</v>
+        <v>0.02210294130471201</v>
       </c>
       <c r="C32">
-        <v>-0.0719811572073497</v>
+        <v>0.05316287833748568</v>
       </c>
       <c r="D32">
-        <v>-0.001076447345910964</v>
+        <v>-0.02483054917417348</v>
       </c>
       <c r="E32">
-        <v>-0.1466361442481014</v>
+        <v>-0.01117920903962658</v>
       </c>
       <c r="F32">
-        <v>0.01334352166876761</v>
+        <v>0.00564605750591017</v>
       </c>
       <c r="G32">
-        <v>0.08602182693136395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.1167862357360986</v>
+      </c>
+      <c r="H32">
+        <v>-0.06310225641080162</v>
+      </c>
+      <c r="I32">
+        <v>-0.09651779946995809</v>
+      </c>
+      <c r="J32">
+        <v>0.1639110070152137</v>
+      </c>
+      <c r="K32">
+        <v>0.2481841623450354</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.008354992605342998</v>
+        <v>0.01724876960681676</v>
       </c>
       <c r="C33">
-        <v>-0.09659946359753012</v>
+        <v>0.1012831111147524</v>
       </c>
       <c r="D33">
-        <v>-0.05891856413035652</v>
+        <v>-0.05194994944634234</v>
       </c>
       <c r="E33">
-        <v>-0.007104500302664426</v>
+        <v>0.009182204391933242</v>
       </c>
       <c r="F33">
-        <v>-0.001499120082179114</v>
+        <v>0.01901904119409132</v>
       </c>
       <c r="G33">
-        <v>0.0378935359547672</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01201705957298482</v>
+      </c>
+      <c r="H33">
+        <v>-0.02186191536691021</v>
+      </c>
+      <c r="I33">
+        <v>-0.0378344494329215</v>
+      </c>
+      <c r="J33">
+        <v>0.05090148203226297</v>
+      </c>
+      <c r="K33">
+        <v>0.01807467671234361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.004318541866793523</v>
+        <v>0.01728715279831313</v>
       </c>
       <c r="C34">
-        <v>-0.05296591665815831</v>
+        <v>0.05007584917971612</v>
       </c>
       <c r="D34">
-        <v>-0.0225241923107256</v>
+        <v>-0.0213190333914625</v>
       </c>
       <c r="E34">
-        <v>0.006604251838897642</v>
+        <v>-0.01456168568915427</v>
       </c>
       <c r="F34">
-        <v>0.02105168687753226</v>
+        <v>-0.004733973376875348</v>
       </c>
       <c r="G34">
-        <v>0.02582225050069722</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.005856776403706126</v>
+      </c>
+      <c r="H34">
+        <v>-0.01896136037480096</v>
+      </c>
+      <c r="I34">
+        <v>-0.0243987018655842</v>
+      </c>
+      <c r="J34">
+        <v>-0.01104126482022064</v>
+      </c>
+      <c r="K34">
+        <v>-0.01124310806000349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.001755940857089441</v>
+        <v>0.01011459388631286</v>
       </c>
       <c r="C35">
-        <v>-0.03231425166604431</v>
+        <v>0.04651610713744105</v>
       </c>
       <c r="D35">
-        <v>-0.009709917953225693</v>
+        <v>-0.02258901221781308</v>
       </c>
       <c r="E35">
-        <v>-0.002933149221291001</v>
+        <v>0.005968483524465498</v>
       </c>
       <c r="F35">
-        <v>0.01017242656958826</v>
+        <v>-0.006104303938966596</v>
       </c>
       <c r="G35">
-        <v>0.03481132411684913</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.01223132679148489</v>
+      </c>
+      <c r="H35">
+        <v>-0.05116628113189974</v>
+      </c>
+      <c r="I35">
+        <v>-0.1252679382712507</v>
+      </c>
+      <c r="J35">
+        <v>0.08824438584386876</v>
+      </c>
+      <c r="K35">
+        <v>-0.0004841536732872289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01248494597776179</v>
+        <v>0.01358458282096001</v>
       </c>
       <c r="C36">
-        <v>-0.05306531939663962</v>
+        <v>0.0465749382218732</v>
       </c>
       <c r="D36">
-        <v>-0.05675736208743323</v>
+        <v>-0.04399324140957171</v>
       </c>
       <c r="E36">
-        <v>0.005071100169753197</v>
+        <v>0.009809097452268784</v>
       </c>
       <c r="F36">
-        <v>0.01965538411167252</v>
+        <v>0.009881812063719079</v>
       </c>
       <c r="G36">
-        <v>0.02680556627736022</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01004338769663191</v>
+      </c>
+      <c r="H36">
+        <v>0.0132156001255739</v>
+      </c>
+      <c r="I36">
+        <v>-0.04922421882400418</v>
+      </c>
+      <c r="J36">
+        <v>0.07859354733853179</v>
+      </c>
+      <c r="K36">
+        <v>-0.02050932844393712</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.03499791888481699</v>
+        <v>0.01044736820228486</v>
       </c>
       <c r="C38">
-        <v>-0.04658850584997751</v>
+        <v>0.05633619606386688</v>
       </c>
       <c r="D38">
-        <v>-0.03747726573914344</v>
+        <v>-0.03714849487691738</v>
       </c>
       <c r="E38">
-        <v>0.01347123423120379</v>
+        <v>0.04711052457277629</v>
       </c>
       <c r="F38">
-        <v>0.009875718929688556</v>
+        <v>0.02327374033381015</v>
       </c>
       <c r="G38">
-        <v>0.0458341074284189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.007499096513788428</v>
+      </c>
+      <c r="H38">
+        <v>-0.0161838781359641</v>
+      </c>
+      <c r="I38">
+        <v>-0.04824627538324009</v>
+      </c>
+      <c r="J38">
+        <v>0.05924214135438387</v>
+      </c>
+      <c r="K38">
+        <v>0.06872195839199657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.002973838681306574</v>
+        <v>0.02478619725490399</v>
       </c>
       <c r="C39">
-        <v>-0.1309487588255785</v>
+        <v>0.1313676341318079</v>
       </c>
       <c r="D39">
-        <v>-0.05811193042403612</v>
+        <v>-0.05961782813157961</v>
       </c>
       <c r="E39">
-        <v>0.01023577409339591</v>
+        <v>0.008606070258575394</v>
       </c>
       <c r="F39">
-        <v>0.01586018243579883</v>
+        <v>-0.01490826422964153</v>
       </c>
       <c r="G39">
-        <v>0.06182469799562765</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.005132144247787366</v>
+      </c>
+      <c r="H39">
+        <v>-0.04069470460235967</v>
+      </c>
+      <c r="I39">
+        <v>-0.04648918324429325</v>
+      </c>
+      <c r="J39">
+        <v>0.006727104256377486</v>
+      </c>
+      <c r="K39">
+        <v>-0.09064094313750409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.004878908695806369</v>
+        <v>0.01461890028112993</v>
       </c>
       <c r="C40">
-        <v>-0.04427424499502635</v>
+        <v>0.05962897933116566</v>
       </c>
       <c r="D40">
-        <v>-0.03275413178143157</v>
+        <v>-0.04484640282885272</v>
       </c>
       <c r="E40">
-        <v>-0.105628211986024</v>
+        <v>-0.001295047349021329</v>
       </c>
       <c r="F40">
-        <v>-0.07711006033562018</v>
+        <v>-0.006119450601397169</v>
       </c>
       <c r="G40">
-        <v>0.0939640065939676</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.034563714442732</v>
+      </c>
+      <c r="H40">
+        <v>-0.1454941493771004</v>
+      </c>
+      <c r="I40">
+        <v>-0.01960054388434777</v>
+      </c>
+      <c r="J40">
+        <v>0.03276617266700674</v>
+      </c>
+      <c r="K40">
+        <v>-0.03655008252836184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01125789889176726</v>
+        <v>0.02223620457405027</v>
       </c>
       <c r="C41">
-        <v>-0.03008463956935737</v>
+        <v>0.04781654537261999</v>
       </c>
       <c r="D41">
-        <v>-0.008255738484368403</v>
+        <v>-0.01493295195370323</v>
       </c>
       <c r="E41">
-        <v>0.008068227774375247</v>
+        <v>-0.005458835085934534</v>
       </c>
       <c r="F41">
-        <v>0.0100367811601441</v>
+        <v>-0.007208654293049134</v>
       </c>
       <c r="G41">
-        <v>-0.04606291540190797</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01280077699381303</v>
+      </c>
+      <c r="H41">
+        <v>0.008855172936165919</v>
+      </c>
+      <c r="I41">
+        <v>-0.0121243234611079</v>
+      </c>
+      <c r="J41">
+        <v>0.0236098731187814</v>
+      </c>
+      <c r="K41">
+        <v>0.02784423095179656</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.005480433599905846</v>
+        <v>0.01923894018430123</v>
       </c>
       <c r="C43">
-        <v>-0.03080329222724048</v>
+        <v>0.04526836071621939</v>
       </c>
       <c r="D43">
-        <v>-0.02673005098222807</v>
+        <v>-0.02931135433730087</v>
       </c>
       <c r="E43">
-        <v>0.006055295524762957</v>
+        <v>0.002020556140911085</v>
       </c>
       <c r="F43">
-        <v>0.0003496089768086955</v>
+        <v>0.00444215216447421</v>
       </c>
       <c r="G43">
-        <v>-0.009877006628393923</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01161199635281934</v>
+      </c>
+      <c r="H43">
+        <v>-0.0006232922807605329</v>
+      </c>
+      <c r="I43">
+        <v>-0.02270748348381018</v>
+      </c>
+      <c r="J43">
+        <v>0.03012578325565772</v>
+      </c>
+      <c r="K43">
+        <v>-0.001840504610414099</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02095442952958985</v>
+        <v>0.01739958908290653</v>
       </c>
       <c r="C44">
-        <v>-0.1027937969247252</v>
+        <v>0.09832718442418602</v>
       </c>
       <c r="D44">
-        <v>-0.03168613052309827</v>
+        <v>-0.05758781592889764</v>
       </c>
       <c r="E44">
-        <v>-0.02037266318552427</v>
+        <v>0.03589375231755506</v>
       </c>
       <c r="F44">
-        <v>-0.02647877507893623</v>
+        <v>0.0529178641368841</v>
       </c>
       <c r="G44">
-        <v>0.07034914805253686</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03469971479638945</v>
+      </c>
+      <c r="H44">
+        <v>-0.04616405414080538</v>
+      </c>
+      <c r="I44">
+        <v>-0.01994852277517425</v>
+      </c>
+      <c r="J44">
+        <v>0.04830619766607295</v>
+      </c>
+      <c r="K44">
+        <v>-0.05311770297920305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.008484554437934175</v>
+        <v>0.004728449160576629</v>
       </c>
       <c r="C46">
-        <v>-0.06942709840784822</v>
+        <v>0.06565972673053423</v>
       </c>
       <c r="D46">
-        <v>-0.04977714670199347</v>
+        <v>-0.02896731077191199</v>
       </c>
       <c r="E46">
-        <v>-0.01467059772890621</v>
+        <v>0.007963837010136844</v>
       </c>
       <c r="F46">
-        <v>0.01711026331120517</v>
+        <v>-0.0126394857128908</v>
       </c>
       <c r="G46">
-        <v>0.02729039911717611</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.00165282218500102</v>
+      </c>
+      <c r="H46">
+        <v>-0.02479340335718829</v>
+      </c>
+      <c r="I46">
+        <v>-0.05119461678816557</v>
+      </c>
+      <c r="J46">
+        <v>0.08343663750257813</v>
+      </c>
+      <c r="K46">
+        <v>-0.02184453536146068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.004492544718801342</v>
+        <v>0.02176832734973857</v>
       </c>
       <c r="C47">
-        <v>-0.0599331033580024</v>
+        <v>0.07358846700539427</v>
       </c>
       <c r="D47">
-        <v>-0.05582361114510098</v>
+        <v>-0.04381368082065999</v>
       </c>
       <c r="E47">
-        <v>0.01999792031022962</v>
+        <v>-0.01316160492464062</v>
       </c>
       <c r="F47">
-        <v>0.0499784550469738</v>
+        <v>-0.006596270173985804</v>
       </c>
       <c r="G47">
-        <v>0.008579405332069126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.007893436848058178</v>
+      </c>
+      <c r="H47">
+        <v>0.001564163913901733</v>
+      </c>
+      <c r="I47">
+        <v>-0.04471255747261745</v>
+      </c>
+      <c r="J47">
+        <v>0.05588603031908667</v>
+      </c>
+      <c r="K47">
+        <v>0.01735654805935068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01279393959987534</v>
+        <v>0.01592534660482178</v>
       </c>
       <c r="C48">
-        <v>-0.05328888055627334</v>
+        <v>0.04598909159232604</v>
       </c>
       <c r="D48">
-        <v>-0.06661465708358963</v>
+        <v>-0.05256920717018917</v>
       </c>
       <c r="E48">
-        <v>0.01126531614858687</v>
+        <v>-0.008688012465437768</v>
       </c>
       <c r="F48">
-        <v>0.01486579839021216</v>
+        <v>0.02375374742100696</v>
       </c>
       <c r="G48">
-        <v>0.02941378491965029</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.008702722708177461</v>
+      </c>
+      <c r="H48">
+        <v>0.01899516868113613</v>
+      </c>
+      <c r="I48">
+        <v>-0.07016233493440879</v>
+      </c>
+      <c r="J48">
+        <v>0.1074821731277019</v>
+      </c>
+      <c r="K48">
+        <v>-0.04357400052578379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02230023313667891</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.05054532211502572</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.01083968336169738</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.03270356329829487</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.02935693244754375</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.06853038860179803</v>
+      </c>
+      <c r="H49">
+        <v>-0.0700713421122604</v>
+      </c>
+      <c r="I49">
+        <v>-0.0221503891275743</v>
+      </c>
+      <c r="J49">
+        <v>-0.1138611913781592</v>
+      </c>
+      <c r="K49">
+        <v>-0.04104045602648537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.002876622641745562</v>
+        <v>0.01573749715152753</v>
       </c>
       <c r="C50">
-        <v>-0.06245512252536402</v>
+        <v>0.07543541597364113</v>
       </c>
       <c r="D50">
-        <v>-0.02827034575780998</v>
+        <v>-0.03243307223976231</v>
       </c>
       <c r="E50">
-        <v>-0.001540397861299266</v>
+        <v>-0.004656264129603259</v>
       </c>
       <c r="F50">
-        <v>-0.006392394877111275</v>
+        <v>0.02039465955450975</v>
       </c>
       <c r="G50">
-        <v>0.01732845776770186</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007802602433724566</v>
+      </c>
+      <c r="H50">
+        <v>0.007355705209317228</v>
+      </c>
+      <c r="I50">
+        <v>-0.05911542097715546</v>
+      </c>
+      <c r="J50">
+        <v>0.03486505634696185</v>
+      </c>
+      <c r="K50">
+        <v>0.05086352534588856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.006700182984180217</v>
+        <v>-0.004044265156325519</v>
       </c>
       <c r="C51">
-        <v>-0.07350744543625659</v>
+        <v>0.03565488694646652</v>
       </c>
       <c r="D51">
-        <v>-0.03527987037623158</v>
+        <v>-0.0266105382366798</v>
       </c>
       <c r="E51">
-        <v>-0.02908817690961124</v>
+        <v>0.0243637145676361</v>
       </c>
       <c r="F51">
-        <v>-0.008968770955818214</v>
+        <v>0.003214262157687401</v>
       </c>
       <c r="G51">
-        <v>-0.005390165099991925</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.02494883716307642</v>
+      </c>
+      <c r="H51">
+        <v>-0.01527065895498609</v>
+      </c>
+      <c r="I51">
+        <v>-0.04953300554813764</v>
+      </c>
+      <c r="J51">
+        <v>0.09771872700630749</v>
+      </c>
+      <c r="K51">
+        <v>-0.03205269240483489</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.0379548521311243</v>
+        <v>0.06051385974434283</v>
       </c>
       <c r="C53">
-        <v>-0.1072080770426385</v>
+        <v>0.1316029731928124</v>
       </c>
       <c r="D53">
-        <v>-0.06450353639532042</v>
+        <v>-0.057051307935505</v>
       </c>
       <c r="E53">
-        <v>0.1152320030373762</v>
+        <v>-0.03299938760515407</v>
       </c>
       <c r="F53">
-        <v>0.04510192596326218</v>
+        <v>-0.04399686054649741</v>
       </c>
       <c r="G53">
-        <v>-0.1106985827506218</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03958125165794309</v>
+      </c>
+      <c r="H53">
+        <v>0.09036057901699077</v>
+      </c>
+      <c r="I53">
+        <v>0.01887199792510166</v>
+      </c>
+      <c r="J53">
+        <v>-0.01574617195713378</v>
+      </c>
+      <c r="K53">
+        <v>0.02530364425714893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.003811338787324571</v>
+        <v>0.0160250681327982</v>
       </c>
       <c r="C54">
-        <v>-0.07387243687608151</v>
+        <v>0.07203929830971907</v>
       </c>
       <c r="D54">
-        <v>-0.01536354024936324</v>
+        <v>-0.01218274282712711</v>
       </c>
       <c r="E54">
-        <v>0.02619054915737013</v>
+        <v>-0.01223198455613289</v>
       </c>
       <c r="F54">
-        <v>0.003172013870056548</v>
+        <v>0.001593431441667803</v>
       </c>
       <c r="G54">
-        <v>0.01872618288044382</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.004208250609593408</v>
+      </c>
+      <c r="H54">
+        <v>-0.00943251753180835</v>
+      </c>
+      <c r="I54">
+        <v>-0.03574594482742364</v>
+      </c>
+      <c r="J54">
+        <v>0.05084622606957547</v>
+      </c>
+      <c r="K54">
+        <v>-0.02866156385426212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01314906508399119</v>
+        <v>0.03061956525786439</v>
       </c>
       <c r="C55">
-        <v>-0.0724972916655577</v>
+        <v>0.08259291514296467</v>
       </c>
       <c r="D55">
-        <v>-0.06145093052716862</v>
+        <v>-0.05327768286628612</v>
       </c>
       <c r="E55">
-        <v>0.05661032965514652</v>
+        <v>-0.0304742803742398</v>
       </c>
       <c r="F55">
-        <v>0.03328469849945815</v>
+        <v>-0.0205553395884451</v>
       </c>
       <c r="G55">
-        <v>-0.03269876254404844</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03056746581350346</v>
+      </c>
+      <c r="H55">
+        <v>0.03902253664746096</v>
+      </c>
+      <c r="I55">
+        <v>0.009782915206742767</v>
+      </c>
+      <c r="J55">
+        <v>0.004145791901122405</v>
+      </c>
+      <c r="K55">
+        <v>-0.008642814047367851</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01441271770121318</v>
+        <v>0.04878285240698602</v>
       </c>
       <c r="C56">
-        <v>-0.1437946316038575</v>
+        <v>0.1528095282190409</v>
       </c>
       <c r="D56">
-        <v>-0.06408617366063429</v>
+        <v>-0.08062566554821453</v>
       </c>
       <c r="E56">
-        <v>0.0873677173187181</v>
+        <v>-0.06892940157952465</v>
       </c>
       <c r="F56">
-        <v>0.06131204321935919</v>
+        <v>-0.08392715825959188</v>
       </c>
       <c r="G56">
-        <v>-0.137136852931217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.04653518368849678</v>
+      </c>
+      <c r="H56">
+        <v>0.1578650275761059</v>
+      </c>
+      <c r="I56">
+        <v>0.01421778794381889</v>
+      </c>
+      <c r="J56">
+        <v>-0.04302946575290716</v>
+      </c>
+      <c r="K56">
+        <v>0.005275838503338715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02706354290977276</v>
+        <v>0.01857538253275136</v>
       </c>
       <c r="C58">
-        <v>-0.2839003773941944</v>
+        <v>0.174014441026947</v>
       </c>
       <c r="D58">
-        <v>0.03539262460277962</v>
+        <v>-0.04415404089285333</v>
       </c>
       <c r="E58">
-        <v>-0.173439610233208</v>
+        <v>0.1853055876694099</v>
       </c>
       <c r="F58">
-        <v>-0.215547153904629</v>
+        <v>0.1792812133485608</v>
       </c>
       <c r="G58">
-        <v>0.002592088879616124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.250330190972666</v>
+      </c>
+      <c r="H58">
+        <v>0.07518476813834311</v>
+      </c>
+      <c r="I58">
+        <v>0.01954061023498273</v>
+      </c>
+      <c r="J58">
+        <v>0.1607411590540203</v>
+      </c>
+      <c r="K58">
+        <v>0.06593021057379213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2908228643537453</v>
+        <v>0.2888065209529475</v>
       </c>
       <c r="C59">
-        <v>0.003035430701722076</v>
+        <v>-0.05225747269073096</v>
       </c>
       <c r="D59">
-        <v>0.008410949381798356</v>
+        <v>0.005952457949446171</v>
       </c>
       <c r="E59">
-        <v>-0.06272860244073976</v>
+        <v>0.01469924088934263</v>
       </c>
       <c r="F59">
-        <v>0.04500584603584777</v>
+        <v>0.01016889898457265</v>
       </c>
       <c r="G59">
-        <v>0.001983915706959929</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.05363137098300558</v>
+      </c>
+      <c r="H59">
+        <v>0.005171685473035921</v>
+      </c>
+      <c r="I59">
+        <v>0.01885779294609067</v>
+      </c>
+      <c r="J59">
+        <v>-0.002682077655465661</v>
+      </c>
+      <c r="K59">
+        <v>0.03030238714230932</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1120338137277185</v>
+        <v>0.1527231540825895</v>
       </c>
       <c r="C60">
-        <v>-0.147315217980483</v>
+        <v>0.1606875173390356</v>
       </c>
       <c r="D60">
-        <v>-0.08776238166940958</v>
+        <v>-0.04122019287800918</v>
       </c>
       <c r="E60">
-        <v>0.1231732715867835</v>
+        <v>-0.1478633703011832</v>
       </c>
       <c r="F60">
-        <v>0.1922046747598387</v>
+        <v>-0.07278603711109165</v>
       </c>
       <c r="G60">
-        <v>0.2499928032783164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.08602861674954163</v>
+      </c>
+      <c r="H60">
+        <v>-0.241219236978597</v>
+      </c>
+      <c r="I60">
+        <v>0.2003647784064851</v>
+      </c>
+      <c r="J60">
+        <v>-0.1018890729209352</v>
+      </c>
+      <c r="K60">
+        <v>-0.02567209735117065</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006103710322295174</v>
+        <v>0.02499133025400903</v>
       </c>
       <c r="C61">
-        <v>-0.08784667665378559</v>
+        <v>0.09884608228762527</v>
       </c>
       <c r="D61">
-        <v>-0.06858101396170728</v>
+        <v>-0.05397947339975957</v>
       </c>
       <c r="E61">
-        <v>0.02989585209078611</v>
+        <v>-0.01371041276215084</v>
       </c>
       <c r="F61">
-        <v>0.03084176460488268</v>
+        <v>-0.01359476033174007</v>
       </c>
       <c r="G61">
-        <v>0.06754521135873595</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01917361564292039</v>
+      </c>
+      <c r="H61">
+        <v>-0.02458596008803707</v>
+      </c>
+      <c r="I61">
+        <v>-0.05961094833296773</v>
+      </c>
+      <c r="J61">
+        <v>0.01194257327660076</v>
+      </c>
+      <c r="K61">
+        <v>-0.03461658787715479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002574856638340364</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01493646912673551</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.003481764346219777</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.02189131683003111</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.02799622165172724</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.009204200563216225</v>
+      </c>
+      <c r="H62">
+        <v>-0.01727522785034196</v>
+      </c>
+      <c r="I62">
+        <v>-0.02016472034266127</v>
+      </c>
+      <c r="J62">
+        <v>0.00458273922010414</v>
+      </c>
+      <c r="K62">
+        <v>0.006793797482427326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>8.609894914200407e-05</v>
+        <v>0.02665960356951608</v>
       </c>
       <c r="C63">
-        <v>-0.0591724881732868</v>
+        <v>0.06380289070358669</v>
       </c>
       <c r="D63">
-        <v>-0.03464077882933374</v>
+        <v>-0.05893062751788574</v>
       </c>
       <c r="E63">
-        <v>0.01734385053679501</v>
+        <v>-0.008214924215049765</v>
       </c>
       <c r="F63">
-        <v>-4.594406810535629e-05</v>
+        <v>-0.007250146973347659</v>
       </c>
       <c r="G63">
-        <v>-0.005620545998507827</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.00584321233818476</v>
+      </c>
+      <c r="H63">
+        <v>0.006754213589712342</v>
+      </c>
+      <c r="I63">
+        <v>-0.05809583353736453</v>
+      </c>
+      <c r="J63">
+        <v>0.03777387812090943</v>
+      </c>
+      <c r="K63">
+        <v>-0.0193452523559082</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.002163485526664744</v>
+        <v>0.01805485076865854</v>
       </c>
       <c r="C64">
-        <v>-0.09595557372133218</v>
+        <v>0.09379879899752186</v>
       </c>
       <c r="D64">
-        <v>-0.07182887964831897</v>
+        <v>-0.03475850650668288</v>
       </c>
       <c r="E64">
-        <v>0.01014448307787832</v>
+        <v>-0.02036451354547915</v>
       </c>
       <c r="F64">
-        <v>-0.01197996850985043</v>
+        <v>0.04992706233220499</v>
       </c>
       <c r="G64">
-        <v>0.032695152938617</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01186201048823289</v>
+      </c>
+      <c r="H64">
+        <v>-0.04817506609351119</v>
+      </c>
+      <c r="I64">
+        <v>-0.03591542788134568</v>
+      </c>
+      <c r="J64">
+        <v>0.03188075234725802</v>
+      </c>
+      <c r="K64">
+        <v>-0.08308754093802526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.01025583785514465</v>
+        <v>0.03237520675744715</v>
       </c>
       <c r="C65">
-        <v>-0.08928070422416931</v>
+        <v>0.09407975472047793</v>
       </c>
       <c r="D65">
-        <v>-0.03334582662640299</v>
+        <v>-0.02235539984642342</v>
       </c>
       <c r="E65">
-        <v>-0.01743924423067874</v>
+        <v>0.00683558576484862</v>
       </c>
       <c r="F65">
-        <v>0.01917103672787232</v>
+        <v>0.003894204561824274</v>
       </c>
       <c r="G65">
-        <v>0.07945599208748305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01072456729269751</v>
+      </c>
+      <c r="H65">
+        <v>-0.08601886451282476</v>
+      </c>
+      <c r="I65">
+        <v>0.01134783296085528</v>
+      </c>
+      <c r="J65">
+        <v>0.006943209263900249</v>
+      </c>
+      <c r="K65">
+        <v>-0.06265833456760797</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.002333430126012876</v>
+        <v>0.02201442568931817</v>
       </c>
       <c r="C66">
-        <v>-0.1752633383620681</v>
+        <v>0.1721661169931876</v>
       </c>
       <c r="D66">
-        <v>-0.04649297572510756</v>
+        <v>-0.05130399268571123</v>
       </c>
       <c r="E66">
-        <v>-0.02482596520748249</v>
+        <v>0.003080635085354378</v>
       </c>
       <c r="F66">
-        <v>0.02683796312379306</v>
+        <v>-0.01155931382879667</v>
       </c>
       <c r="G66">
-        <v>0.08744902190601747</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0109623365946045</v>
+      </c>
+      <c r="H66">
+        <v>-0.0319010099380157</v>
+      </c>
+      <c r="I66">
+        <v>-0.06690534616686228</v>
+      </c>
+      <c r="J66">
+        <v>0.00578799724767624</v>
+      </c>
+      <c r="K66">
+        <v>-0.06321588316086602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03523295401052819</v>
+        <v>0.02000887595625608</v>
       </c>
       <c r="C67">
-        <v>-0.02453015634932187</v>
+        <v>0.04935498422713932</v>
       </c>
       <c r="D67">
-        <v>-0.0554678910102788</v>
+        <v>-0.03868706685202847</v>
       </c>
       <c r="E67">
-        <v>0.0470713761872666</v>
+        <v>0.03176392545477472</v>
       </c>
       <c r="F67">
-        <v>0.02357102164297804</v>
+        <v>0.00227424015062413</v>
       </c>
       <c r="G67">
-        <v>0.0545274586941534</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03271476337118395</v>
+      </c>
+      <c r="H67">
+        <v>-0.03763082567002955</v>
+      </c>
+      <c r="I67">
+        <v>-0.01371858393681172</v>
+      </c>
+      <c r="J67">
+        <v>0.06024927023177778</v>
+      </c>
+      <c r="K67">
+        <v>0.05183205654272326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2959438426790066</v>
+        <v>0.2926898068912446</v>
       </c>
       <c r="C68">
-        <v>0.02596930140842003</v>
+        <v>-0.07871430572144339</v>
       </c>
       <c r="D68">
-        <v>0.001974734327518887</v>
+        <v>0.02711339111639623</v>
       </c>
       <c r="E68">
-        <v>-0.02698664383100611</v>
+        <v>-0.0129328565180178</v>
       </c>
       <c r="F68">
-        <v>-0.001774913586664858</v>
+        <v>0.02304082018892599</v>
       </c>
       <c r="G68">
-        <v>0.01361127820181545</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03749518086730021</v>
+      </c>
+      <c r="H68">
+        <v>0.02476342391290941</v>
+      </c>
+      <c r="I68">
+        <v>-0.02378993419079847</v>
+      </c>
+      <c r="J68">
+        <v>0.02752562064479501</v>
+      </c>
+      <c r="K68">
+        <v>0.04329514663054286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.007916746229349979</v>
+        <v>0.0102316075503399</v>
       </c>
       <c r="C69">
-        <v>-0.05588195087360619</v>
+        <v>0.04690034764712783</v>
       </c>
       <c r="D69">
-        <v>-0.05605452946616209</v>
+        <v>-0.02524216264898989</v>
       </c>
       <c r="E69">
-        <v>0.03200385241120218</v>
+        <v>0.002731470658275407</v>
       </c>
       <c r="F69">
-        <v>0.005645608600221407</v>
+        <v>-0.01538091995135055</v>
       </c>
       <c r="G69">
-        <v>0.02242683558166641</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.007090299640138082</v>
+      </c>
+      <c r="H69">
+        <v>-0.01651952496757599</v>
+      </c>
+      <c r="I69">
+        <v>-0.006497091555942578</v>
+      </c>
+      <c r="J69">
+        <v>0.0371403984025518</v>
+      </c>
+      <c r="K69">
+        <v>0.02863527844836481</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.286301497414583</v>
+        <v>0.2744793860439967</v>
       </c>
       <c r="C71">
-        <v>0.03958462365880911</v>
+        <v>-0.07966205604432193</v>
       </c>
       <c r="D71">
-        <v>0.0127258073205618</v>
+        <v>0.0223548454399185</v>
       </c>
       <c r="E71">
-        <v>-0.02485498506041917</v>
+        <v>0.01909575612679996</v>
       </c>
       <c r="F71">
-        <v>-0.02086786182923679</v>
+        <v>0.04417375388466051</v>
       </c>
       <c r="G71">
-        <v>0.002043770178799992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.04545134580950129</v>
+      </c>
+      <c r="H71">
+        <v>0.02460940254250676</v>
+      </c>
+      <c r="I71">
+        <v>-0.02845299152526807</v>
+      </c>
+      <c r="J71">
+        <v>0.05142813300568426</v>
+      </c>
+      <c r="K71">
+        <v>0.1136237230996609</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.01160709718679404</v>
+        <v>0.05361598125011971</v>
       </c>
       <c r="C72">
-        <v>-0.1484908030698103</v>
+        <v>0.1373672466733171</v>
       </c>
       <c r="D72">
-        <v>-0.06953147391197106</v>
+        <v>-0.05026305712775538</v>
       </c>
       <c r="E72">
-        <v>0.02021927787658311</v>
+        <v>-0.06127175241470956</v>
       </c>
       <c r="F72">
-        <v>-0.03918002191092512</v>
+        <v>-0.008678720942248938</v>
       </c>
       <c r="G72">
-        <v>0.09418934484576989</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.01966516588501524</v>
+      </c>
+      <c r="H72">
+        <v>0.01069971520333776</v>
+      </c>
+      <c r="I72">
+        <v>-0.04423492569376872</v>
+      </c>
+      <c r="J72">
+        <v>0.0294489266237911</v>
+      </c>
+      <c r="K72">
+        <v>-0.09754766368574037</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.077484826625901</v>
+        <v>0.1566885134294732</v>
       </c>
       <c r="C73">
-        <v>-0.1191500259537381</v>
+        <v>0.1988324270760271</v>
       </c>
       <c r="D73">
-        <v>-0.1348519946510013</v>
+        <v>-0.08397854501735258</v>
       </c>
       <c r="E73">
-        <v>0.1969754546470991</v>
+        <v>-0.1098103724177601</v>
       </c>
       <c r="F73">
-        <v>0.2039171687701381</v>
+        <v>-0.1083633948168464</v>
       </c>
       <c r="G73">
-        <v>0.3507911616894319</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1880494530099837</v>
+      </c>
+      <c r="H73">
+        <v>-0.378123190795729</v>
+      </c>
+      <c r="I73">
+        <v>0.274312152023803</v>
+      </c>
+      <c r="J73">
+        <v>-0.1095671904170025</v>
+      </c>
+      <c r="K73">
+        <v>0.1323216824357382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01515995596816119</v>
+        <v>0.03839386977168233</v>
       </c>
       <c r="C74">
-        <v>-0.08275464377890558</v>
+        <v>0.09829986355003012</v>
       </c>
       <c r="D74">
-        <v>-0.06992398768276828</v>
+        <v>-0.04457798283286082</v>
       </c>
       <c r="E74">
-        <v>0.06532918019621248</v>
+        <v>-0.03270686203284792</v>
       </c>
       <c r="F74">
-        <v>0.04304305391244979</v>
+        <v>0.001776843178148572</v>
       </c>
       <c r="G74">
-        <v>-0.06172118616516237</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.02697464066456593</v>
+      </c>
+      <c r="H74">
+        <v>0.05814809704595683</v>
+      </c>
+      <c r="I74">
+        <v>0.006340185608068443</v>
+      </c>
+      <c r="J74">
+        <v>0.02462631400436282</v>
+      </c>
+      <c r="K74">
+        <v>-0.0136069976696709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03759403677083002</v>
+        <v>0.06443396770688097</v>
       </c>
       <c r="C75">
-        <v>-0.1412376459025676</v>
+        <v>0.1626457841651383</v>
       </c>
       <c r="D75">
-        <v>-0.06732470808285335</v>
+        <v>-0.08287953271555025</v>
       </c>
       <c r="E75">
-        <v>0.1370390908680731</v>
+        <v>-0.04523296395652558</v>
       </c>
       <c r="F75">
-        <v>0.009496857206643918</v>
+        <v>-0.01910688690813483</v>
       </c>
       <c r="G75">
-        <v>-0.192322059820991</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1023362444990235</v>
+      </c>
+      <c r="H75">
+        <v>0.21308532428994</v>
+      </c>
+      <c r="I75">
+        <v>-0.02931712471239426</v>
+      </c>
+      <c r="J75">
+        <v>-0.04661027632408827</v>
+      </c>
+      <c r="K75">
+        <v>0.134621384596421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.01288844489645431</v>
+        <v>0.0455072680039376</v>
       </c>
       <c r="C76">
-        <v>-0.1052896108582324</v>
+        <v>0.1254677376760235</v>
       </c>
       <c r="D76">
-        <v>-0.06250213712068382</v>
+        <v>-0.07433274494731426</v>
       </c>
       <c r="E76">
-        <v>0.08292013102348396</v>
+        <v>-0.02802561232812972</v>
       </c>
       <c r="F76">
-        <v>0.04896528114752666</v>
+        <v>-0.05175504042251006</v>
       </c>
       <c r="G76">
-        <v>-0.07214472607297494</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.06298137473827499</v>
+      </c>
+      <c r="H76">
+        <v>0.07583037177985591</v>
+      </c>
+      <c r="I76">
+        <v>-0.009970711320878251</v>
+      </c>
+      <c r="J76">
+        <v>-0.04479175698461581</v>
+      </c>
+      <c r="K76">
+        <v>-0.02004383951569274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08891643999146411</v>
+        <v>0.05414020834072494</v>
       </c>
       <c r="C77">
-        <v>-0.3518181171698258</v>
+        <v>0.4021125808691915</v>
       </c>
       <c r="D77">
-        <v>0.8406908879389438</v>
+        <v>0.8987493441361166</v>
       </c>
       <c r="E77">
-        <v>0.2976048848348004</v>
+        <v>-0.00421838906469472</v>
       </c>
       <c r="F77">
-        <v>0.1243340118076881</v>
+        <v>-0.01164753862504351</v>
       </c>
       <c r="G77">
-        <v>0.00969325977220532</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.07371715606306441</v>
+      </c>
+      <c r="H77">
+        <v>0.03386877924070639</v>
+      </c>
+      <c r="I77">
+        <v>-0.08232010740164174</v>
+      </c>
+      <c r="J77">
+        <v>-0.008485857386241824</v>
+      </c>
+      <c r="K77">
+        <v>0.02112462086691082</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02866705078553879</v>
+        <v>0.03859572401836323</v>
       </c>
       <c r="C78">
-        <v>-0.1263221194547232</v>
+        <v>0.1134790964985391</v>
       </c>
       <c r="D78">
-        <v>-0.1685629126394357</v>
+        <v>-0.09358520537054775</v>
       </c>
       <c r="E78">
-        <v>-0.08933341184336319</v>
+        <v>0.02748405940324332</v>
       </c>
       <c r="F78">
-        <v>0.1169290803441348</v>
+        <v>-0.04809487681892142</v>
       </c>
       <c r="G78">
-        <v>-0.1112171579851522</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01542579419668441</v>
+      </c>
+      <c r="H78">
+        <v>0.1125139658230822</v>
+      </c>
+      <c r="I78">
+        <v>-0.0101059029516867</v>
+      </c>
+      <c r="J78">
+        <v>0.06672011106339307</v>
+      </c>
+      <c r="K78">
+        <v>-0.08369676303046635</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02362359194493164</v>
+        <v>0.05781434871135565</v>
       </c>
       <c r="C79">
-        <v>-0.1586785715776795</v>
+        <v>0.139404473504415</v>
       </c>
       <c r="D79">
-        <v>-0.1064306578302505</v>
+        <v>-0.06754801153777582</v>
       </c>
       <c r="E79">
-        <v>0.09310044579493351</v>
+        <v>-0.03145302758853452</v>
       </c>
       <c r="F79">
-        <v>0.06178481479894899</v>
+        <v>-0.0514681396056229</v>
       </c>
       <c r="G79">
-        <v>-0.2936935211273762</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.03730897293045229</v>
+      </c>
+      <c r="H79">
+        <v>0.2684279651351438</v>
+      </c>
+      <c r="I79">
+        <v>-0.008552844390463742</v>
+      </c>
+      <c r="J79">
+        <v>0.02875392069155769</v>
+      </c>
+      <c r="K79">
+        <v>0.05963800188305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.0009955159226764968</v>
+        <v>0.01958256733564633</v>
       </c>
       <c r="C80">
-        <v>-0.06147447173689063</v>
+        <v>0.04599908261218567</v>
       </c>
       <c r="D80">
-        <v>-0.04124356408111117</v>
+        <v>-0.03647895760295673</v>
       </c>
       <c r="E80">
-        <v>-0.05007402856176501</v>
+        <v>0.02139415592706401</v>
       </c>
       <c r="F80">
-        <v>0.001373744614998037</v>
+        <v>-0.03006629778960279</v>
       </c>
       <c r="G80">
-        <v>0.00832526117329033</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.0565769622377198</v>
+      </c>
+      <c r="H80">
+        <v>-0.07898318849498019</v>
+      </c>
+      <c r="I80">
+        <v>0.03401692369327394</v>
+      </c>
+      <c r="J80">
+        <v>-0.01053864012589426</v>
+      </c>
+      <c r="K80">
+        <v>0.02038973833181322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.003644850059641916</v>
+        <v>0.01655176307164819</v>
       </c>
       <c r="C81">
-        <v>-0.08074173749704322</v>
+        <v>0.09700371255356688</v>
       </c>
       <c r="D81">
-        <v>-0.06831767064340527</v>
+        <v>-0.05639551088973386</v>
       </c>
       <c r="E81">
-        <v>0.0761763589588093</v>
+        <v>-0.02552711507262612</v>
       </c>
       <c r="F81">
-        <v>0.04514085157208361</v>
+        <v>-0.0319520877471042</v>
       </c>
       <c r="G81">
-        <v>-0.1055436269703668</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02212574192836677</v>
+      </c>
+      <c r="H81">
+        <v>0.11687164747933</v>
+      </c>
+      <c r="I81">
+        <v>-0.02816023756078811</v>
+      </c>
+      <c r="J81">
+        <v>0.03976199592146485</v>
+      </c>
+      <c r="K81">
+        <v>0.04418013660268891</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01885986995931822</v>
+        <v>0.04715222241078198</v>
       </c>
       <c r="C82">
-        <v>-0.07788988421816954</v>
+        <v>0.106735789898677</v>
       </c>
       <c r="D82">
-        <v>-0.07051253896889828</v>
+        <v>-0.06440409699565669</v>
       </c>
       <c r="E82">
-        <v>0.09148799599900792</v>
+        <v>-0.01813066745825527</v>
       </c>
       <c r="F82">
-        <v>0.05132602570273165</v>
+        <v>-0.06022460894719847</v>
       </c>
       <c r="G82">
-        <v>-0.0518346162332959</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.05256226248535853</v>
+      </c>
+      <c r="H82">
+        <v>0.07955148662782807</v>
+      </c>
+      <c r="I82">
+        <v>-0.02195584753908624</v>
+      </c>
+      <c r="J82">
+        <v>-0.02619388383932068</v>
+      </c>
+      <c r="K82">
+        <v>0.01316217160006185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.006237375211586862</v>
+        <v>-0.0004866518869006435</v>
       </c>
       <c r="C83">
-        <v>-0.003447683249694977</v>
+        <v>-0.02201432272028923</v>
       </c>
       <c r="D83">
-        <v>0.1252752253845581</v>
+        <v>0.05626853102927373</v>
       </c>
       <c r="E83">
-        <v>-0.5685347525804673</v>
+        <v>-0.1394681774584785</v>
       </c>
       <c r="F83">
-        <v>0.7144701385103088</v>
+        <v>-0.7191983454560615</v>
       </c>
       <c r="G83">
-        <v>-0.1414546020422824</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.6223660175459423</v>
+      </c>
+      <c r="H83">
+        <v>-0.006516559271524433</v>
+      </c>
+      <c r="I83">
+        <v>0.002342568827590484</v>
+      </c>
+      <c r="J83">
+        <v>-0.1191703342603108</v>
+      </c>
+      <c r="K83">
+        <v>-0.0503463162578514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.004379656816986828</v>
+        <v>0.01428663290240071</v>
       </c>
       <c r="C84">
-        <v>-0.09445931464990447</v>
+        <v>0.0619771826587923</v>
       </c>
       <c r="D84">
-        <v>-0.02588944962052721</v>
+        <v>-0.08714099352958263</v>
       </c>
       <c r="E84">
-        <v>-0.07468477626336058</v>
+        <v>0.3517974811753061</v>
       </c>
       <c r="F84">
-        <v>-0.1591957143644391</v>
+        <v>0.02409288080393545</v>
       </c>
       <c r="G84">
-        <v>-0.003207746720047108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.02477683365388737</v>
+      </c>
+      <c r="H84">
+        <v>-0.1586634682394847</v>
+      </c>
+      <c r="I84">
+        <v>-0.5663597308846671</v>
+      </c>
+      <c r="J84">
+        <v>-0.6434772402476862</v>
+      </c>
+      <c r="K84">
+        <v>0.1536816606948233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.003409246341086835</v>
+        <v>0.03102894848479365</v>
       </c>
       <c r="C85">
-        <v>-0.1016667922782207</v>
+        <v>0.1134150600925848</v>
       </c>
       <c r="D85">
-        <v>-0.06896796223675777</v>
+        <v>-0.08013004973205577</v>
       </c>
       <c r="E85">
-        <v>0.082214651723614</v>
+        <v>-0.04540110789651555</v>
       </c>
       <c r="F85">
-        <v>0.0549316968908263</v>
+        <v>-0.08020158796557467</v>
       </c>
       <c r="G85">
-        <v>-0.2100943767837385</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.09190074073479944</v>
+      </c>
+      <c r="H85">
+        <v>0.2259872222192381</v>
+      </c>
+      <c r="I85">
+        <v>-0.01085237468886768</v>
+      </c>
+      <c r="J85">
+        <v>-0.05767315202451741</v>
+      </c>
+      <c r="K85">
+        <v>0.0790583219510034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01709374510599448</v>
+        <v>0.01460744248317439</v>
       </c>
       <c r="C86">
-        <v>-0.08163348520742801</v>
+        <v>0.07780897049013157</v>
       </c>
       <c r="D86">
-        <v>0.01015634231609199</v>
+        <v>-0.03073743026980966</v>
       </c>
       <c r="E86">
-        <v>-0.01202089586435606</v>
+        <v>0.06855103106559667</v>
       </c>
       <c r="F86">
-        <v>-0.02059488407225874</v>
+        <v>0.01548527684664216</v>
       </c>
       <c r="G86">
-        <v>0.08788988103237898</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.06437671188607332</v>
+      </c>
+      <c r="H86">
+        <v>0.05144160772173822</v>
+      </c>
+      <c r="I86">
+        <v>0.07774679220685715</v>
+      </c>
+      <c r="J86">
+        <v>0.09156537875186865</v>
+      </c>
+      <c r="K86">
+        <v>0.1298542570400918</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.02083594620692565</v>
+        <v>0.02608105980096254</v>
       </c>
       <c r="C87">
-        <v>-0.1637723431395696</v>
+        <v>0.1181636130289155</v>
       </c>
       <c r="D87">
-        <v>-0.02647726301749704</v>
+        <v>-0.01971844942708773</v>
       </c>
       <c r="E87">
-        <v>-0.09158977103588618</v>
+        <v>-0.03123812685368423</v>
       </c>
       <c r="F87">
-        <v>-0.06775697692076922</v>
+        <v>0.04173939602224543</v>
       </c>
       <c r="G87">
-        <v>-0.01539214890287978</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.04643806004108549</v>
+      </c>
+      <c r="H87">
+        <v>0.01392305581602207</v>
+      </c>
+      <c r="I87">
+        <v>-0.05294968130065889</v>
+      </c>
+      <c r="J87">
+        <v>-0.002240879407054155</v>
+      </c>
+      <c r="K87">
+        <v>-0.09792439519173478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.01156515373686205</v>
+        <v>0.03889290978917014</v>
       </c>
       <c r="C88">
-        <v>-0.03388187554073299</v>
+        <v>0.0594338226205306</v>
       </c>
       <c r="D88">
-        <v>-0.03972183871693691</v>
+        <v>-0.03823418632605226</v>
       </c>
       <c r="E88">
-        <v>0.0539433103834738</v>
+        <v>-0.02136190082140481</v>
       </c>
       <c r="F88">
-        <v>0.01616320499911425</v>
+        <v>0.0009025300958796987</v>
       </c>
       <c r="G88">
-        <v>0.01008937829971756</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.02026488874637554</v>
+      </c>
+      <c r="H88">
+        <v>-0.007401553381552123</v>
+      </c>
+      <c r="I88">
+        <v>0.01223898858503213</v>
+      </c>
+      <c r="J88">
+        <v>0.01591942260271176</v>
+      </c>
+      <c r="K88">
+        <v>-0.01413480503458095</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4092194419082605</v>
+        <v>0.3904429866444576</v>
       </c>
       <c r="C89">
-        <v>0.07881776537149793</v>
+        <v>-0.123259154613964</v>
       </c>
       <c r="D89">
-        <v>-0.06968348992874929</v>
+        <v>0.03895935810119198</v>
       </c>
       <c r="E89">
-        <v>-0.05757325571343076</v>
+        <v>0.01295294171744191</v>
       </c>
       <c r="F89">
-        <v>-0.07446707474229571</v>
+        <v>0.05778786417552832</v>
       </c>
       <c r="G89">
-        <v>-0.067394679270761</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.01024246810631804</v>
+      </c>
+      <c r="H89">
+        <v>-0.02875797663244686</v>
+      </c>
+      <c r="I89">
+        <v>-0.04929384810022713</v>
+      </c>
+      <c r="J89">
+        <v>-0.05268902631448322</v>
+      </c>
+      <c r="K89">
+        <v>-0.7431635083336521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3119911251042066</v>
+        <v>0.3165362763734146</v>
       </c>
       <c r="C90">
-        <v>0.0151340787364519</v>
+        <v>-0.07836101978449272</v>
       </c>
       <c r="D90">
-        <v>-0.005732511216501205</v>
+        <v>0.01945841071277605</v>
       </c>
       <c r="E90">
-        <v>-0.05494078317646826</v>
+        <v>0.0119213567471182</v>
       </c>
       <c r="F90">
-        <v>0.04329598799786</v>
+        <v>0.009852472377018215</v>
       </c>
       <c r="G90">
-        <v>0.01862438953762537</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02921471387317737</v>
+      </c>
+      <c r="H90">
+        <v>0.001694866400010412</v>
+      </c>
+      <c r="I90">
+        <v>-0.01163041181611128</v>
+      </c>
+      <c r="J90">
+        <v>-0.007273236538738592</v>
+      </c>
+      <c r="K90">
+        <v>0.1041450029963922</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02137947195505853</v>
+        <v>0.05608531032611521</v>
       </c>
       <c r="C91">
-        <v>-0.07608215529180871</v>
+        <v>0.07766142695869377</v>
       </c>
       <c r="D91">
-        <v>-0.05606147128113383</v>
+        <v>-0.05218277062636913</v>
       </c>
       <c r="E91">
-        <v>0.04496485727684421</v>
+        <v>-0.04459093239334498</v>
       </c>
       <c r="F91">
-        <v>0.04980660231912694</v>
+        <v>-0.05301532798218247</v>
       </c>
       <c r="G91">
-        <v>-0.08884726257832148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.007254856329328711</v>
+      </c>
+      <c r="H91">
+        <v>0.08531471353315213</v>
+      </c>
+      <c r="I91">
+        <v>0.01124544048174618</v>
+      </c>
+      <c r="J91">
+        <v>-0.03166136140513487</v>
+      </c>
+      <c r="K91">
+        <v>0.009129681511764241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3762530747010095</v>
+        <v>0.350481131976976</v>
       </c>
       <c r="C92">
-        <v>0.0614641056258811</v>
+        <v>-0.1249891442808125</v>
       </c>
       <c r="D92">
-        <v>0.01965309420759491</v>
+        <v>0.05563753135135068</v>
       </c>
       <c r="E92">
-        <v>0.01244121946775299</v>
+        <v>0.007996662750793139</v>
       </c>
       <c r="F92">
-        <v>-0.1241634885064719</v>
+        <v>0.06379160885831324</v>
       </c>
       <c r="G92">
-        <v>0.001758897368634323</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0160245090673491</v>
+      </c>
+      <c r="H92">
+        <v>0.01077956133926766</v>
+      </c>
+      <c r="I92">
+        <v>-0.04200139158995949</v>
+      </c>
+      <c r="J92">
+        <v>0.06142080607761519</v>
+      </c>
+      <c r="K92">
+        <v>0.137656774892101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3055602271925119</v>
+        <v>0.3077364340111229</v>
       </c>
       <c r="C93">
-        <v>0.07497869689737267</v>
+        <v>-0.123264961663439</v>
       </c>
       <c r="D93">
-        <v>-0.007421048559352534</v>
+        <v>0.007382965501418041</v>
       </c>
       <c r="E93">
-        <v>-0.07851343166265319</v>
+        <v>0.03429002745263043</v>
       </c>
       <c r="F93">
-        <v>-0.04715520633649057</v>
+        <v>0.02214491347825777</v>
       </c>
       <c r="G93">
-        <v>0.00493930944216383</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03565558742682218</v>
+      </c>
+      <c r="H93">
+        <v>0.03968765261386543</v>
+      </c>
+      <c r="I93">
+        <v>-0.01158171403511004</v>
+      </c>
+      <c r="J93">
+        <v>0.02614978670304148</v>
+      </c>
+      <c r="K93">
+        <v>0.1245943235088412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.03076136830904755</v>
+        <v>0.08296072721144065</v>
       </c>
       <c r="C94">
-        <v>-0.1910678158265927</v>
+        <v>0.1632620718921026</v>
       </c>
       <c r="D94">
-        <v>-0.1237830205661485</v>
+        <v>-0.1124280545863588</v>
       </c>
       <c r="E94">
-        <v>0.1417985062277022</v>
+        <v>-0.05282080438485563</v>
       </c>
       <c r="F94">
-        <v>-0.02513302185285186</v>
+        <v>-0.09167894953937628</v>
       </c>
       <c r="G94">
-        <v>-0.5957503166807687</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.09146102441871644</v>
+      </c>
+      <c r="H94">
+        <v>0.5246949769379803</v>
+      </c>
+      <c r="I94">
+        <v>0.1058847894001401</v>
+      </c>
+      <c r="J94">
+        <v>-0.2449869597489931</v>
+      </c>
+      <c r="K94">
+        <v>-0.05798923752221036</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.0205893174399636</v>
+        <v>0.04364572042086104</v>
       </c>
       <c r="C95">
-        <v>-0.1224531052746927</v>
+        <v>0.1316669106379948</v>
       </c>
       <c r="D95">
-        <v>-0.05385406983870446</v>
+        <v>-0.06403510774461205</v>
       </c>
       <c r="E95">
-        <v>0.06830948669521167</v>
+        <v>-0.009581919600340015</v>
       </c>
       <c r="F95">
-        <v>0.1019085229052297</v>
+        <v>-0.0237004159067216</v>
       </c>
       <c r="G95">
-        <v>0.01948410841780418</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.08500931352425865</v>
+      </c>
+      <c r="H95">
+        <v>-0.0446577705990978</v>
+      </c>
+      <c r="I95">
+        <v>-0.0931050072082487</v>
+      </c>
+      <c r="J95">
+        <v>-0.05831486153561639</v>
+      </c>
+      <c r="K95">
+        <v>-0.1652598600872517</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.002259201582455982</v>
+        <v>0.02113442434744145</v>
       </c>
       <c r="C97">
-        <v>-0.001106620585952368</v>
+        <v>0.02689589779038363</v>
       </c>
       <c r="D97">
-        <v>-0.0002033794936864474</v>
+        <v>0.007969932054355366</v>
       </c>
       <c r="E97">
-        <v>0.003660163975265031</v>
+        <v>0.05356747965212011</v>
       </c>
       <c r="F97">
-        <v>-0.003412749217813652</v>
+        <v>-0.004807133537488717</v>
       </c>
       <c r="G97">
-        <v>0.006491164580992413</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02902627489104269</v>
+      </c>
+      <c r="H97">
+        <v>-0.03163916533508487</v>
+      </c>
+      <c r="I97">
+        <v>0.03340948742982969</v>
+      </c>
+      <c r="J97">
+        <v>0.039207322501602</v>
+      </c>
+      <c r="K97">
+        <v>-0.0398455247889079</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.08735559008329677</v>
+        <v>0.1390852244630315</v>
       </c>
       <c r="C98">
-        <v>-0.1567032834555856</v>
+        <v>0.1618149083146859</v>
       </c>
       <c r="D98">
-        <v>-0.1541262510704305</v>
+        <v>-0.0895094245050799</v>
       </c>
       <c r="E98">
-        <v>0.1237595101641747</v>
+        <v>-0.1323456653250289</v>
       </c>
       <c r="F98">
-        <v>0.1308553586770748</v>
+        <v>-0.1152744553672472</v>
       </c>
       <c r="G98">
-        <v>0.2199863465725718</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.157083321293334</v>
+      </c>
+      <c r="H98">
+        <v>-0.3097901792845693</v>
+      </c>
+      <c r="I98">
+        <v>0.2577527146548675</v>
+      </c>
+      <c r="J98">
+        <v>-0.1465012700990597</v>
+      </c>
+      <c r="K98">
+        <v>0.126002212893364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02888354357860331</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.06473415432844208</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.006755372518225593</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.8368921787946193</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.3229786137721216</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.1584900448277286</v>
+      </c>
+      <c r="H99">
+        <v>-0.0001579141559725589</v>
+      </c>
+      <c r="I99">
+        <v>0.2793561923723638</v>
+      </c>
+      <c r="J99">
+        <v>0.1584509129577314</v>
+      </c>
+      <c r="K99">
+        <v>-0.07378656223278399</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.006737652936395627</v>
+        <v>0.01756167276158413</v>
       </c>
       <c r="C101">
-        <v>-0.08596237386839137</v>
+        <v>0.08173713660661039</v>
       </c>
       <c r="D101">
-        <v>-0.04932219041465909</v>
+        <v>-0.04863940809624409</v>
       </c>
       <c r="E101">
-        <v>-0.006381789170457816</v>
+        <v>-0.02148846245758636</v>
       </c>
       <c r="F101">
-        <v>0.03606397813593825</v>
+        <v>-0.02875902034653098</v>
       </c>
       <c r="G101">
-        <v>0.08762266095158427</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.02796506032354198</v>
+      </c>
+      <c r="H101">
+        <v>-0.1316556518228094</v>
+      </c>
+      <c r="I101">
+        <v>-0.210053005406347</v>
+      </c>
+      <c r="J101">
+        <v>0.1780388916237958</v>
+      </c>
+      <c r="K101">
+        <v>-0.02587486252199386</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.004481295186931563</v>
+        <v>0.002147309481261068</v>
       </c>
       <c r="C102">
-        <v>-0.01444376862829441</v>
+        <v>0.005708165764270063</v>
       </c>
       <c r="D102">
-        <v>0.00344541872308529</v>
+        <v>0.002976534201620224</v>
       </c>
       <c r="E102">
-        <v>0.01826698673620341</v>
+        <v>-0.002912310672330707</v>
       </c>
       <c r="F102">
-        <v>0.01398967805441702</v>
+        <v>-0.002074894583056451</v>
       </c>
       <c r="G102">
-        <v>-0.01215373966871422</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.002203313218764282</v>
+      </c>
+      <c r="H102">
+        <v>0.004337141326756938</v>
+      </c>
+      <c r="I102">
+        <v>-0.003991535323335544</v>
+      </c>
+      <c r="J102">
+        <v>0.005992765820774924</v>
+      </c>
+      <c r="K102">
+        <v>-0.01557978205741815</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
